--- a/test1/KA_2_500.xlsx
+++ b/test1/KA_2_500.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\x-plo\Documents\GitHub\MASystem\test1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\x-plo\Desktop\temp\pythonProject5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44C9EC6-DF3D-4BA0-B8CE-0AEBEAA89009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB04E317-8F89-455A-892F-6201792293DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="10">
   <si>
     <t>ППИ</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Виток</t>
   </si>
   <si>
-    <t>Сутки</t>
-  </si>
-  <si>
     <t>Дудинка</t>
   </si>
   <si>
@@ -65,7 +62,7 @@
     <t>Мурманск</t>
   </si>
   <si>
-    <t>Краснонярск</t>
+    <t>Красноярск</t>
   </si>
 </sst>
 </file>
@@ -442,21 +439,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F454"/>
+  <dimension ref="A1:E454"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A401" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D454"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -472,13 +469,10 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>1758.6791780798101</v>
@@ -493,13 +487,10 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>7369.39561655532</v>
@@ -514,13 +505,10 @@
       <c r="E3">
         <v>2</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>7783.0398242721803</v>
@@ -535,13 +523,10 @@
       <c r="E4">
         <v>2</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>12997.8585504492</v>
@@ -556,13 +541,10 @@
       <c r="E5">
         <v>3</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>13317.926544681701</v>
@@ -577,13 +559,10 @@
       <c r="E6">
         <v>3</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>18633.838918020701</v>
@@ -598,13 +577,10 @@
       <c r="E7">
         <v>4</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>18728.6119679127</v>
@@ -619,13 +595,10 @@
       <c r="E8">
         <v>4</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>18929.299961601399</v>
@@ -640,13 +613,10 @@
       <c r="E9">
         <v>4</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>19039.982747370799</v>
@@ -661,13 +631,10 @@
       <c r="E10">
         <v>4</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>24232.3531504403</v>
@@ -682,13 +649,10 @@
       <c r="E11">
         <v>5</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12">
         <v>24324.807232790401</v>
@@ -703,13 +667,10 @@
       <c r="E12">
         <v>5</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13">
         <v>24512.514109735101</v>
@@ -724,13 +685,10 @@
       <c r="E13">
         <v>5</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14">
         <v>29611.739246678098</v>
@@ -745,13 +703,10 @@
       <c r="E14">
         <v>6</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15">
         <v>29939.2832263856</v>
@@ -766,13 +721,10 @@
       <c r="E15">
         <v>6</v>
       </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16">
         <v>30081.8688073952</v>
@@ -787,13 +739,10 @@
       <c r="E16">
         <v>6</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17">
         <v>30181.011676117701</v>
@@ -808,13 +757,10 @@
       <c r="E17">
         <v>6</v>
       </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18">
         <v>35059.502264757197</v>
@@ -829,13 +775,10 @@
       <c r="E18">
         <v>7</v>
       </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19">
         <v>35551.505369105202</v>
@@ -850,13 +793,10 @@
       <c r="E19">
         <v>7</v>
       </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B20">
         <v>35667.666535640201</v>
@@ -871,13 +811,10 @@
       <c r="E20">
         <v>7</v>
       </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21">
         <v>40606.465229731497</v>
@@ -892,13 +829,10 @@
       <c r="E21">
         <v>8</v>
       </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22">
         <v>41138.443252249897</v>
@@ -913,13 +847,10 @@
       <c r="E22">
         <v>8</v>
       </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B23">
         <v>41280.642547345902</v>
@@ -934,13 +865,10 @@
       <c r="E23">
         <v>8</v>
       </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24">
         <v>46222.591493680899</v>
@@ -955,13 +883,10 @@
       <c r="E24">
         <v>9</v>
       </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B25">
         <v>46286.441701791999</v>
@@ -976,13 +901,10 @@
       <c r="E25">
         <v>9</v>
       </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26">
         <v>46674.3017520949</v>
@@ -997,13 +919,10 @@
       <c r="E26">
         <v>9</v>
       </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B27">
         <v>46895.118608249002</v>
@@ -1018,13 +937,10 @@
       <c r="E27">
         <v>9</v>
       </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B28">
         <v>51664.501340099501</v>
@@ -1039,13 +955,10 @@
       <c r="E28">
         <v>10</v>
       </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29">
         <v>52179.042082289903</v>
@@ -1060,13 +973,10 @@
       <c r="E29">
         <v>10</v>
       </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B30">
         <v>52489.724244217003</v>
@@ -1081,13 +991,10 @@
       <c r="E30">
         <v>10</v>
       </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B31">
         <v>57439.431285891602</v>
@@ -1102,13 +1009,10 @@
       <c r="E31">
         <v>11</v>
       </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B32">
         <v>57536.568844607602</v>
@@ -1123,13 +1027,10 @@
       <c r="E32">
         <v>11</v>
       </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B33">
         <v>57713.727273801102</v>
@@ -1144,13 +1045,10 @@
       <c r="E33">
         <v>11</v>
       </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B34">
         <v>58032.602245581897</v>
@@ -1165,13 +1063,10 @@
       <c r="E34">
         <v>11</v>
       </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B35">
         <v>63111.408012868698</v>
@@ -1186,13 +1081,10 @@
       <c r="E35">
         <v>12</v>
       </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B36">
         <v>63324.626099710098</v>
@@ -1207,13 +1099,10 @@
       <c r="E36">
         <v>12</v>
       </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B37">
         <v>63532.7491622054</v>
@@ -1228,13 +1117,10 @@
       <c r="E37">
         <v>12</v>
       </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B38">
         <v>69001.709545963196</v>
@@ -1249,13 +1135,10 @@
       <c r="E38">
         <v>13</v>
       </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B39">
         <v>69049.654421883097</v>
@@ -1270,13 +1153,10 @@
       <c r="E39">
         <v>13</v>
       </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B40">
         <v>69054.008407175701</v>
@@ -1291,13 +1171,10 @@
       <c r="E40">
         <v>13</v>
       </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B41">
         <v>74647.658461866697</v>
@@ -1312,13 +1189,10 @@
       <c r="E41">
         <v>14</v>
       </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B42">
         <v>80351.238172896905</v>
@@ -1333,13 +1207,10 @@
       <c r="E42">
         <v>15</v>
       </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B43">
         <v>86733.232215801705</v>
@@ -1354,13 +1225,10 @@
       <c r="E43">
         <v>16</v>
       </c>
-      <c r="F43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B44">
         <v>92336.973932132401</v>
@@ -1375,13 +1243,10 @@
       <c r="E44">
         <v>17</v>
       </c>
-      <c r="F44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B45">
         <v>92847.541370617793</v>
@@ -1396,13 +1261,10 @@
       <c r="E45">
         <v>17</v>
       </c>
-      <c r="F45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B46">
         <v>97963.004112183902</v>
@@ -1417,13 +1279,10 @@
       <c r="E46">
         <v>18</v>
       </c>
-      <c r="F46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B47">
         <v>98287.626707193602</v>
@@ -1438,13 +1297,10 @@
       <c r="E47">
         <v>18</v>
       </c>
-      <c r="F47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B48">
         <v>103597.767329972</v>
@@ -1459,13 +1315,10 @@
       <c r="E48">
         <v>19</v>
       </c>
-      <c r="F48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B49">
         <v>103709.852164924</v>
@@ -1480,13 +1333,10 @@
       <c r="E49">
         <v>19</v>
       </c>
-      <c r="F49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B50">
         <v>103925.39231802399</v>
@@ -1501,13 +1351,10 @@
       <c r="E50">
         <v>19</v>
       </c>
-      <c r="F50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B51">
         <v>103957.994233014</v>
@@ -1522,13 +1369,10 @@
       <c r="E51">
         <v>19</v>
       </c>
-      <c r="F51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B52">
         <v>109294.84508617299</v>
@@ -1543,13 +1387,10 @@
       <c r="E52">
         <v>20</v>
       </c>
-      <c r="F52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B53">
         <v>109480.384388587</v>
@@ -1564,13 +1405,10 @@
       <c r="E53">
         <v>20</v>
       </c>
-      <c r="F53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B54">
         <v>114625.787150388</v>
@@ -1585,13 +1423,10 @@
       <c r="E54">
         <v>21</v>
       </c>
-      <c r="F54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B55">
         <v>114907.981896036</v>
@@ -1606,13 +1441,10 @@
       <c r="E55">
         <v>21</v>
       </c>
-      <c r="F55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B56">
         <v>115070.807315837</v>
@@ -1627,13 +1459,10 @@
       <c r="E56">
         <v>21</v>
       </c>
-      <c r="F56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B57">
         <v>115128.906276126</v>
@@ -1648,13 +1477,10 @@
       <c r="E57">
         <v>21</v>
       </c>
-      <c r="F57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B58">
         <v>120056.617376225</v>
@@ -1669,13 +1495,10 @@
       <c r="E58">
         <v>22</v>
       </c>
-      <c r="F58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B59">
         <v>120522.00084112601</v>
@@ -1690,13 +1513,10 @@
       <c r="E59">
         <v>22</v>
       </c>
-      <c r="F59">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B60">
         <v>120638.612095545</v>
@@ -1711,13 +1531,10 @@
       <c r="E60">
         <v>22</v>
       </c>
-      <c r="F60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B61">
         <v>125579.958849627</v>
@@ -1732,13 +1549,10 @@
       <c r="E61">
         <v>23</v>
       </c>
-      <c r="F61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B62">
         <v>126116.74458674301</v>
@@ -1753,13 +1567,10 @@
       <c r="E62">
         <v>23</v>
       </c>
-      <c r="F62">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B63">
         <v>126249.54720017299</v>
@@ -1774,13 +1585,10 @@
       <c r="E63">
         <v>23</v>
       </c>
-      <c r="F63">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B64">
         <v>131227.54594529298</v>
@@ -1795,13 +1603,10 @@
       <c r="E64">
         <v>24</v>
       </c>
-      <c r="F64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B65">
         <v>131341.55544062101</v>
@@ -1816,13 +1621,10 @@
       <c r="E65">
         <v>24</v>
       </c>
-      <c r="F65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B66">
         <v>131664.349465862</v>
@@ -1837,13 +1639,10 @@
       <c r="E66">
         <v>24</v>
       </c>
-      <c r="F66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B67">
         <v>131864.023146024</v>
@@ -1858,13 +1657,10 @@
       <c r="E67">
         <v>24</v>
       </c>
-      <c r="F67">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B68">
         <v>136643.36932622999</v>
@@ -1879,13 +1675,10 @@
       <c r="E68">
         <v>25</v>
       </c>
-      <c r="F68">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B69">
         <v>137109.529443932</v>
@@ -1900,13 +1693,10 @@
       <c r="E69">
         <v>25</v>
       </c>
-      <c r="F69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B70">
         <v>137170.81234078601</v>
@@ -1921,13 +1711,10 @@
       <c r="E70">
         <v>25</v>
       </c>
-      <c r="F70">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B71">
         <v>137466.19724635099</v>
@@ -1942,13 +1729,10 @@
       <c r="E71">
         <v>25</v>
       </c>
-      <c r="F71">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B72">
         <v>142331.21946547099</v>
@@ -1963,13 +1747,10 @@
       <c r="E72">
         <v>26</v>
       </c>
-      <c r="F72">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B73">
         <v>142540.425821885</v>
@@ -1984,13 +1765,10 @@
       <c r="E73">
         <v>26</v>
       </c>
-      <c r="F73">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B74">
         <v>142694.481323613</v>
@@ -2005,13 +1783,10 @@
       <c r="E74">
         <v>26</v>
       </c>
-      <c r="F74">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B75">
         <v>143021.89096369801</v>
@@ -2026,13 +1801,10 @@
       <c r="E75">
         <v>26</v>
       </c>
-      <c r="F75">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B76">
         <v>148071.567798078</v>
@@ -2047,13 +1819,10 @@
       <c r="E76">
         <v>27</v>
       </c>
-      <c r="F76">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B77">
         <v>148286.16457557399</v>
@@ -2068,13 +1837,10 @@
       <c r="E77">
         <v>27</v>
       </c>
-      <c r="F77">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B78">
         <v>148526.488582488</v>
@@ -2089,13 +1855,10 @@
       <c r="E78">
         <v>27</v>
       </c>
-      <c r="F78">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B79">
         <v>153842.11804408001</v>
@@ -2110,13 +1873,10 @@
       <c r="E79">
         <v>28</v>
       </c>
-      <c r="F79">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B80">
         <v>153982.67095677901</v>
@@ -2131,13 +1891,10 @@
       <c r="E80">
         <v>28</v>
       </c>
-      <c r="F80">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B81">
         <v>154038.035110375</v>
@@ -2152,13 +1909,10 @@
       <c r="E81">
         <v>28</v>
       </c>
-      <c r="F81">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B82">
         <v>159613.10996719199</v>
@@ -2173,13 +1927,10 @@
       <c r="E82">
         <v>29</v>
       </c>
-      <c r="F82">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B83">
         <v>165289.532644016</v>
@@ -2194,13 +1945,10 @@
       <c r="E83">
         <v>30</v>
       </c>
-      <c r="F83">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B84">
         <v>171150.76282250401</v>
@@ -2215,13 +1963,10 @@
       <c r="E84">
         <v>31</v>
       </c>
-      <c r="F84">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B85">
         <v>171711.144321876</v>
@@ -2236,13 +1981,10 @@
       <c r="E85">
         <v>31</v>
       </c>
-      <c r="F85">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B86">
         <v>177305.47042234699</v>
@@ -2257,13 +1999,10 @@
       <c r="E86">
         <v>32</v>
       </c>
-      <c r="F86">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B87">
         <v>182928.43935205601</v>
@@ -2278,13 +2017,10 @@
       <c r="E87">
         <v>33</v>
       </c>
-      <c r="F87">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B88">
         <v>183263.61897761299</v>
@@ -2299,13 +2035,10 @@
       <c r="E88">
         <v>33</v>
       </c>
-      <c r="F88">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B89">
         <v>188561.83116440001</v>
@@ -2320,13 +2053,10 @@
       <c r="E89">
         <v>34</v>
       </c>
-      <c r="F89">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B90">
         <v>188699.62186640699</v>
@@ -2341,13 +2071,10 @@
       <c r="E90">
         <v>34</v>
       </c>
-      <c r="F90">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B91">
         <v>188899.34603718101</v>
@@ -2362,13 +2089,10 @@
       <c r="E91">
         <v>34</v>
       </c>
-      <c r="F91">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B92">
         <v>188945.57361873501</v>
@@ -2383,13 +2107,10 @@
       <c r="E92">
         <v>34</v>
       </c>
-      <c r="F92">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B93">
         <v>194202.97579618299</v>
@@ -2404,13 +2125,10 @@
       <c r="E93">
         <v>35</v>
       </c>
-      <c r="F93">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B94">
         <v>194265.68711621399</v>
@@ -2425,13 +2143,10 @@
       <c r="E94">
         <v>35</v>
       </c>
-      <c r="F94">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B95">
         <v>194451.68266478</v>
@@ -2446,13 +2161,10 @@
       <c r="E95">
         <v>35</v>
       </c>
-      <c r="F95">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B96">
         <v>199642.374083906</v>
@@ -2467,13 +2179,10 @@
       <c r="E96">
         <v>36</v>
       </c>
-      <c r="F96">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B97">
         <v>199876.68058923099</v>
@@ -2488,13 +2197,10 @@
       <c r="E97">
         <v>36</v>
       </c>
-      <c r="F97">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B98">
         <v>200080.533656618</v>
@@ -2509,13 +2215,10 @@
       <c r="E98">
         <v>36</v>
       </c>
-      <c r="F98">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B99">
         <v>200083.47063984099</v>
@@ -2530,13 +2233,10 @@
       <c r="E99">
         <v>36</v>
       </c>
-      <c r="F99">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B100">
         <v>205057.958800591</v>
@@ -2551,13 +2251,10 @@
       <c r="E100">
         <v>37</v>
       </c>
-      <c r="F100">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B101">
         <v>205492.124037726</v>
@@ -2572,13 +2269,10 @@
       <c r="E101">
         <v>37</v>
       </c>
-      <c r="F101">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B102">
         <v>205611.05407367999</v>
@@ -2593,13 +2287,10 @@
       <c r="E102">
         <v>37</v>
       </c>
-      <c r="F102">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B103">
         <v>210558.99433122401</v>
@@ -2614,13 +2305,10 @@
       <c r="E103">
         <v>38</v>
       </c>
-      <c r="F103">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B104">
         <v>211092.99097083099</v>
@@ -2635,13 +2323,10 @@
       <c r="E104">
         <v>38</v>
       </c>
-      <c r="F104">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B105">
         <v>211218.45187748701</v>
@@ -2656,13 +2341,10 @@
       <c r="E105">
         <v>38</v>
       </c>
-      <c r="F105">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B106">
         <v>216176.893419256</v>
@@ -2677,13 +2359,10 @@
       <c r="E106">
         <v>39</v>
       </c>
-      <c r="F106">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B107">
         <v>216652.25687332699</v>
@@ -2698,13 +2377,10 @@
       <c r="E107">
         <v>39</v>
       </c>
-      <c r="F107">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B108">
         <v>216832.92770828499</v>
@@ -2719,13 +2395,10 @@
       <c r="E108">
         <v>39</v>
       </c>
-      <c r="F108">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B109">
         <v>221634.69907745501</v>
@@ -2740,13 +2413,10 @@
       <c r="E109">
         <v>40</v>
       </c>
-      <c r="F109">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B110">
         <v>221972.81941839401</v>
@@ -2761,13 +2431,10 @@
       <c r="E110">
         <v>40</v>
       </c>
-      <c r="F110">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B111">
         <v>222163.44654686199</v>
@@ -2782,13 +2449,10 @@
       <c r="E111">
         <v>40</v>
       </c>
-      <c r="F111">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B112">
         <v>222440.618429497</v>
@@ -2803,13 +2467,10 @@
       <c r="E112">
         <v>40</v>
       </c>
-      <c r="F112">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B113">
         <v>227254.877125136</v>
@@ -2824,13 +2485,10 @@
       <c r="E113">
         <v>41</v>
       </c>
-      <c r="F113">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B114">
         <v>227555.295877367</v>
@@ -2845,13 +2503,10 @@
       <c r="E114">
         <v>41</v>
       </c>
-      <c r="F114">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B115">
         <v>227678.380297948</v>
@@ -2866,13 +2521,10 @@
       <c r="E115">
         <v>41</v>
       </c>
-      <c r="F115">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B116">
         <v>228008.53815406101</v>
@@ -2887,13 +2539,10 @@
       <c r="E116">
         <v>41</v>
       </c>
-      <c r="F116">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B117">
         <v>233041.33483532499</v>
@@ -2908,13 +2557,10 @@
       <c r="E117">
         <v>42</v>
       </c>
-      <c r="F117">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B118">
         <v>233252.395322372</v>
@@ -2929,13 +2575,10 @@
       <c r="E118">
         <v>42</v>
       </c>
-      <c r="F118">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B119">
         <v>233520.61578492701</v>
@@ -2950,13 +2593,10 @@
       <c r="E119">
         <v>42</v>
       </c>
-      <c r="F119">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B120">
         <v>238746.35166354201</v>
@@ -2971,13 +2611,10 @@
       <c r="E120">
         <v>43</v>
       </c>
-      <c r="F120">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B121">
         <v>238923.14268047301</v>
@@ -2992,13 +2629,10 @@
       <c r="E121">
         <v>43</v>
       </c>
-      <c r="F121">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B122">
         <v>239025.02477236901</v>
@@ -3013,13 +2647,10 @@
       <c r="E122">
         <v>43</v>
       </c>
-      <c r="F122">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B123">
         <v>244583.119915558</v>
@@ -3034,13 +2665,10 @@
       <c r="E123">
         <v>44</v>
       </c>
-      <c r="F123">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B124">
         <v>244757.405069114</v>
@@ -3055,13 +2683,10 @@
       <c r="E124">
         <v>44</v>
       </c>
-      <c r="F124">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B125">
         <v>250234.75484620599</v>
@@ -3076,13 +2701,10 @@
       <c r="E125">
         <v>45</v>
       </c>
-      <c r="F125">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B126">
         <v>256033.74534259</v>
@@ -3097,13 +2719,10 @@
       <c r="E126">
         <v>46</v>
       </c>
-      <c r="F126">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B127">
         <v>256694.25197041401</v>
@@ -3118,13 +2737,10 @@
       <c r="E127">
         <v>46</v>
       </c>
-      <c r="F127">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B128">
         <v>262275.11953929201</v>
@@ -3139,13 +2755,10 @@
       <c r="E128">
         <v>47</v>
       </c>
-      <c r="F128">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B129">
         <v>267894.33667949599</v>
@@ -3160,13 +2773,10 @@
       <c r="E129">
         <v>48</v>
       </c>
-      <c r="F129">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B130">
         <v>268247.47125900298</v>
@@ -3181,13 +2791,10 @@
       <c r="E130">
         <v>48</v>
       </c>
-      <c r="F130">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B131">
         <v>273526.205253658</v>
@@ -3202,13 +2809,10 @@
       <c r="E131">
         <v>49</v>
       </c>
-      <c r="F131">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B132">
         <v>273714.60945662402</v>
@@ -3223,13 +2827,10 @@
       <c r="E132">
         <v>49</v>
       </c>
-      <c r="F132">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B133">
         <v>273851.51683806098</v>
@@ -3244,13 +2845,10 @@
       <c r="E133">
         <v>49</v>
       </c>
-      <c r="F133">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B134">
         <v>279164.59546346101</v>
@@ -3265,13 +2863,10 @@
       <c r="E134">
         <v>50</v>
       </c>
-      <c r="F134">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B135">
         <v>279238.13336262503</v>
@@ -3286,13 +2881,10 @@
       <c r="E135">
         <v>50</v>
       </c>
-      <c r="F135">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B136">
         <v>279426.87794470799</v>
@@ -3307,13 +2899,10 @@
       <c r="E136">
         <v>50</v>
       </c>
-      <c r="F136">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B137">
         <v>284661.166488346</v>
@@ -3328,13 +2917,10 @@
       <c r="E137">
         <v>51</v>
       </c>
-      <c r="F137">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B138">
         <v>284845.499976005</v>
@@ -3349,13 +2935,10 @@
       <c r="E138">
         <v>51</v>
       </c>
-      <c r="F138">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B139">
         <v>285042.562442436</v>
@@ -3370,13 +2953,10 @@
       <c r="E139">
         <v>51</v>
       </c>
-      <c r="F139">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B140">
         <v>290063.21643528203</v>
@@ -3391,13 +2971,10 @@
       <c r="E140">
         <v>52</v>
       </c>
-      <c r="F140">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B141">
         <v>290460.82264386798</v>
@@ -3412,13 +2989,10 @@
       <c r="E141">
         <v>52</v>
       </c>
-      <c r="F141">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B142">
         <v>290585.44487063901</v>
@@ -3433,13 +3007,10 @@
       <c r="E142">
         <v>52</v>
       </c>
-      <c r="F142">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B143">
         <v>290789.45694686502</v>
@@ -3454,13 +3025,10 @@
       <c r="E143">
         <v>52</v>
       </c>
-      <c r="F143">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B144">
         <v>295543.29513904301</v>
@@ -3475,13 +3043,10 @@
       <c r="E144">
         <v>53</v>
       </c>
-      <c r="F144">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B145">
         <v>296067.27617273101</v>
@@ -3496,13 +3061,10 @@
       <c r="E145">
         <v>53</v>
       </c>
-      <c r="F145">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B146">
         <v>296187.58760011499</v>
@@ -3517,13 +3079,10 @@
       <c r="E146">
         <v>53</v>
       </c>
-      <c r="F146">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B147">
         <v>301133.52267267701</v>
@@ -3538,13 +3097,10 @@
       <c r="E147">
         <v>54</v>
       </c>
-      <c r="F147">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B148">
         <v>301637.64295341802</v>
@@ -3559,13 +3115,10 @@
       <c r="E148">
         <v>54</v>
       </c>
-      <c r="F148">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B149">
         <v>301801.83229504002</v>
@@ -3580,13 +3133,10 @@
       <c r="E149">
         <v>54</v>
       </c>
-      <c r="F149">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B150">
         <v>306639.57369730098</v>
@@ -3601,13 +3151,10 @@
       <c r="E150">
         <v>55</v>
       </c>
-      <c r="F150">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B151">
         <v>306878.67695772898</v>
@@ -3622,13 +3169,10 @@
       <c r="E151">
         <v>55</v>
       </c>
-      <c r="F151">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B152">
         <v>307156.29574294901</v>
@@ -3643,13 +3187,10 @@
       <c r="E152">
         <v>55</v>
       </c>
-      <c r="F152">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B153">
         <v>307413.29800463299</v>
@@ -3664,13 +3205,10 @@
       <c r="E153">
         <v>55</v>
       </c>
-      <c r="F153">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B154">
         <v>312197.51925349102</v>
@@ -3685,13 +3223,10 @@
       <c r="E154">
         <v>56</v>
       </c>
-      <c r="F154">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B155">
         <v>312584.82559886499</v>
@@ -3706,13 +3241,10 @@
       <c r="E155">
         <v>56</v>
       </c>
-      <c r="F155">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B156">
         <v>312665.037236862</v>
@@ -3727,13 +3259,10 @@
       <c r="E156">
         <v>56</v>
       </c>
-      <c r="F156">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B157">
         <v>312992.23469972098</v>
@@ -3748,13 +3277,10 @@
       <c r="E157">
         <v>56</v>
       </c>
-      <c r="F157">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B158">
         <v>318020.20690007298</v>
@@ -3769,13 +3295,10 @@
       <c r="E158">
         <v>57</v>
       </c>
-      <c r="F158">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B159">
         <v>318222.97974514199</v>
@@ -3790,13 +3313,10 @@
       <c r="E159">
         <v>57</v>
       </c>
-      <c r="F159">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B160">
         <v>318514.40914795001</v>
@@ -3811,13 +3331,10 @@
       <c r="E160">
         <v>57</v>
       </c>
-      <c r="F160">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B161">
         <v>323672.69131266599</v>
@@ -3832,13 +3349,10 @@
       <c r="E161">
         <v>58</v>
       </c>
-      <c r="F161">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B162">
         <v>323870.07468192501</v>
@@ -3853,13 +3367,10 @@
       <c r="E162">
         <v>58</v>
       </c>
-      <c r="F162">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B163">
         <v>324014.54944610997</v>
@@ -3874,13 +3385,10 @@
       <c r="E163">
         <v>58</v>
       </c>
-      <c r="F163">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B164">
         <v>329557.344797378</v>
@@ -3895,13 +3403,10 @@
       <c r="E164">
         <v>59</v>
       </c>
-      <c r="F164">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B165">
         <v>329654.27885721199</v>
@@ -3916,13 +3421,10 @@
       <c r="E165">
         <v>59</v>
       </c>
-      <c r="F165">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B166">
         <v>335186.094011029</v>
@@ -3937,13 +3439,10 @@
       <c r="E166">
         <v>60</v>
       </c>
-      <c r="F166">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B167">
         <v>340943.931755581</v>
@@ -3958,13 +3457,10 @@
       <c r="E167">
         <v>61</v>
       </c>
-      <c r="F167">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B168">
         <v>341686.08720565302</v>
@@ -3979,13 +3475,10 @@
       <c r="E168">
         <v>61</v>
       </c>
-      <c r="F168">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B169">
         <v>347246.196206983</v>
@@ -4000,13 +3493,10 @@
       <c r="E169">
         <v>62</v>
       </c>
-      <c r="F169">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B170">
         <v>352860.839789811</v>
@@ -4021,13 +3511,10 @@
       <c r="E170">
         <v>63</v>
       </c>
-      <c r="F170">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B171">
         <v>353242.86330110597</v>
@@ -4042,13 +3529,10 @@
       <c r="E171">
         <v>63</v>
       </c>
-      <c r="F171">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B172">
         <v>358490.81646214903</v>
@@ -4063,13 +3547,10 @@
       <c r="E172">
         <v>64</v>
       </c>
-      <c r="F172">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B173">
         <v>358811.02454937698</v>
@@ -4084,13 +3565,10 @@
       <c r="E173">
         <v>64</v>
       </c>
-      <c r="F173">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B174">
         <v>364127.73708012799</v>
@@ -4105,13 +3583,10 @@
       <c r="E174">
         <v>65</v>
       </c>
-      <c r="F174">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B175">
         <v>364212.88502682798</v>
@@ -4126,13 +3601,10 @@
       <c r="E175">
         <v>65</v>
       </c>
-      <c r="F175">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B176">
         <v>364407.23915248102</v>
@@ -4147,13 +3619,10 @@
       <c r="E176">
         <v>65</v>
       </c>
-      <c r="F176">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B177">
         <v>369682.27456091403</v>
@@ -4168,13 +3637,10 @@
       <c r="E177">
         <v>66</v>
       </c>
-      <c r="F177">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B178">
         <v>369814.69735993398</v>
@@ -4189,13 +3655,10 @@
       <c r="E178">
         <v>66</v>
       </c>
-      <c r="F178">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B179">
         <v>370005.10853217501</v>
@@ -4210,13 +3673,10 @@
       <c r="E179">
         <v>66</v>
       </c>
-      <c r="F179">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B180">
         <v>375072.05118530302</v>
@@ -4231,13 +3691,10 @@
       <c r="E180">
         <v>67</v>
       </c>
-      <c r="F180">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B181">
         <v>375429.52127355197</v>
@@ -4252,13 +3709,10 @@
       <c r="E181">
         <v>67</v>
       </c>
-      <c r="F181">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B182">
         <v>375563.22251731</v>
@@ -4273,13 +3727,10 @@
       <c r="E182">
         <v>67</v>
       </c>
-      <c r="F182">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B183">
         <v>375692.94410715299</v>
@@ -4294,13 +3745,10 @@
       <c r="E183">
         <v>67</v>
       </c>
-      <c r="F183">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B184">
         <v>380532.58057664899</v>
@@ -4315,13 +3763,10 @@
       <c r="E184">
         <v>68</v>
       </c>
-      <c r="F184">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B185">
         <v>381039.79101909301</v>
@@ -4336,13 +3781,10 @@
       <c r="E185">
         <v>68</v>
       </c>
-      <c r="F185">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B186">
         <v>381157.07032774098</v>
@@ -4357,13 +3799,10 @@
       <c r="E186">
         <v>68</v>
       </c>
-      <c r="F186">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B187">
         <v>386096.80752389698</v>
@@ -4378,13 +3817,10 @@
       <c r="E187">
         <v>69</v>
       </c>
-      <c r="F187">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B188">
         <v>386620.37852015102</v>
@@ -4399,13 +3835,10 @@
       <c r="E188">
         <v>69</v>
       </c>
-      <c r="F188">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B189">
         <v>386770.73690629</v>
@@ -4420,13 +3853,10 @@
       <c r="E189">
         <v>69</v>
       </c>
-      <c r="F189">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B190">
         <v>391661.25217499898</v>
@@ -4441,13 +3871,10 @@
       <c r="E190">
         <v>70</v>
       </c>
-      <c r="F190">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B191">
         <v>391801.58708211803</v>
@@ -4462,13 +3889,10 @@
       <c r="E191">
         <v>70</v>
       </c>
-      <c r="F191">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B192">
         <v>392148.672658303</v>
@@ -4483,13 +3907,10 @@
       <c r="E192">
         <v>70</v>
       </c>
-      <c r="F192">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B193">
         <v>392385.01579720702</v>
@@ -4504,13 +3925,10 @@
       <c r="E193">
         <v>70</v>
       </c>
-      <c r="F193">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B194">
         <v>397154.92129470798</v>
@@ -4525,13 +3943,10 @@
       <c r="E194">
         <v>71</v>
       </c>
-      <c r="F194">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B195">
         <v>397644.23167585599</v>
@@ -4546,13 +3961,10 @@
       <c r="E195">
         <v>71</v>
       </c>
-      <c r="F195">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B196">
         <v>397654.01614223298</v>
@@ -4567,13 +3979,10 @@
       <c r="E196">
         <v>71</v>
       </c>
-      <c r="F196">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B197">
         <v>397973.112862768</v>
@@ -4588,13 +3997,10 @@
       <c r="E197">
         <v>71</v>
       </c>
-      <c r="F197">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B198">
         <v>403008.046806233</v>
@@ -4609,13 +4015,10 @@
       <c r="E198">
         <v>72</v>
       </c>
-      <c r="F198">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B199">
         <v>403057.12481769797</v>
@@ -4630,13 +4033,10 @@
       <c r="E199">
         <v>72</v>
       </c>
-      <c r="F199">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B200">
         <v>403197.59604219999</v>
@@ -4651,13 +4051,10 @@
       <c r="E200">
         <v>72</v>
       </c>
-      <c r="F200">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B201">
         <v>403507.106881032</v>
@@ -4672,13 +4069,10 @@
       <c r="E201">
         <v>72</v>
       </c>
-      <c r="F201">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B202">
         <v>408613.79262046801</v>
@@ -4693,13 +4087,10 @@
       <c r="E202">
         <v>73</v>
       </c>
-      <c r="F202">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B203">
         <v>408822.817195763</v>
@@ -4714,13 +4105,10 @@
       <c r="E203">
         <v>73</v>
       </c>
-      <c r="F203">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B204">
         <v>409006.12011394103</v>
@@ -4735,13 +4123,10 @@
       <c r="E204">
         <v>73</v>
       </c>
-      <c r="F204">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B205">
         <v>414535.50816703303</v>
@@ -4756,13 +4141,10 @@
       <c r="E205">
         <v>74</v>
       </c>
-      <c r="F205">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B206">
         <v>414570.01386745</v>
@@ -4777,13 +4159,10 @@
       <c r="E206">
         <v>74</v>
       </c>
-      <c r="F206">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B207">
         <v>420143.03116651502</v>
@@ -4798,13 +4177,10 @@
       <c r="E207">
         <v>75</v>
       </c>
-      <c r="F207">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B208">
         <v>425867.345381919</v>
@@ -4819,13 +4195,10 @@
       <c r="E208">
         <v>76</v>
       </c>
-      <c r="F208">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B209">
         <v>426700.18529351603</v>
@@ -4840,13 +4213,10 @@
       <c r="E209">
         <v>76</v>
       </c>
-      <c r="F209">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B210">
         <v>432219.019196707</v>
@@ -4861,13 +4231,10 @@
       <c r="E210">
         <v>77</v>
       </c>
-      <c r="F210">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B211">
         <v>437827.93956091697</v>
@@ -4882,13 +4249,10 @@
       <c r="E211">
         <v>78</v>
       </c>
-      <c r="F211">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B212">
         <v>438260.47087993298</v>
@@ -4903,13 +4267,10 @@
       <c r="E212">
         <v>78</v>
       </c>
-      <c r="F212">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B213">
         <v>443455.61608694203</v>
@@ -4924,13 +4285,10 @@
       <c r="E213">
         <v>79</v>
       </c>
-      <c r="F213">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B214">
         <v>443776.54538736399</v>
@@ -4945,13 +4303,10 @@
       <c r="E214">
         <v>79</v>
       </c>
-      <c r="F214">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B215">
         <v>449091.29458319402</v>
@@ -4966,13 +4321,10 @@
       <c r="E215">
         <v>80</v>
       </c>
-      <c r="F215">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B216">
         <v>449190.78375171497</v>
@@ -4987,13 +4339,10 @@
       <c r="E216">
         <v>80</v>
       </c>
-      <c r="F216">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B217">
         <v>449395.07155730203</v>
@@ -5008,13 +4357,10 @@
       <c r="E217">
         <v>80</v>
       </c>
-      <c r="F217">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B218">
         <v>449479.21500115702</v>
@@ -5029,13 +4375,10 @@
       <c r="E218">
         <v>80</v>
       </c>
-      <c r="F218">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B219">
         <v>454783.89476971101</v>
@@ -5050,13 +4393,10 @@
       <c r="E219">
         <v>81</v>
       </c>
-      <c r="F219">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B220">
         <v>454970.88902048703</v>
@@ -5071,13 +4411,10 @@
       <c r="E220">
         <v>81</v>
       </c>
-      <c r="F220">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B221">
         <v>460084.09362887603</v>
@@ -5092,13 +4429,10 @@
       <c r="E221">
         <v>82</v>
       </c>
-      <c r="F221">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B222">
         <v>460398.21992678102</v>
@@ -5113,13 +4447,10 @@
       <c r="E222">
         <v>82</v>
       </c>
-      <c r="F222">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B223">
         <v>460545.923262353</v>
@@ -5134,13 +4465,10 @@
       <c r="E223">
         <v>82</v>
       </c>
-      <c r="F223">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B224">
         <v>460632.70852415799</v>
@@ -5155,13 +4483,10 @@
       <c r="E224">
         <v>82</v>
       </c>
-      <c r="F224">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B225">
         <v>465526.571167027</v>
@@ -5176,13 +4501,10 @@
       <c r="E225">
         <v>83</v>
       </c>
-      <c r="F225">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B226">
         <v>466010.98546592402</v>
@@ -5197,13 +4519,10 @@
       <c r="E226">
         <v>83</v>
       </c>
-      <c r="F226">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B227">
         <v>466127.28274988499</v>
@@ -5218,13 +4537,10 @@
       <c r="E227">
         <v>83</v>
       </c>
-      <c r="F227">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B228">
         <v>471066.23911561701</v>
@@ -5239,13 +4555,10 @@
       <c r="E228">
         <v>84</v>
       </c>
-      <c r="F228">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B229">
         <v>471600.477850586</v>
@@ -5260,13 +4573,10 @@
       <c r="E229">
         <v>84</v>
       </c>
-      <c r="F229">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B230">
         <v>471739.64154203603</v>
@@ -5281,13 +4591,10 @@
       <c r="E230">
         <v>84</v>
       </c>
-      <c r="F230">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B231">
         <v>476710.10122167203</v>
@@ -5302,13 +4609,10 @@
       <c r="E231">
         <v>85</v>
       </c>
-      <c r="F231">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B232">
         <v>476736.08875755098</v>
@@ -5323,13 +4627,10 @@
       <c r="E232">
         <v>85</v>
       </c>
-      <c r="F232">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B233">
         <v>477139.888174586</v>
@@ -5344,13 +4645,10 @@
       <c r="E233">
         <v>85</v>
       </c>
-      <c r="F233">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B234">
         <v>477354.11756814597</v>
@@ -5365,13 +4663,10 @@
       <c r="E234">
         <v>85</v>
       </c>
-      <c r="F234">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B235">
         <v>482125.232675982</v>
@@ -5386,13 +4681,10 @@
       <c r="E235">
         <v>86</v>
       </c>
-      <c r="F235">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B236">
         <v>482644.82467356301</v>
@@ -5407,13 +4699,10 @@
       <c r="E236">
         <v>86</v>
       </c>
-      <c r="F236">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B237">
         <v>482951.250264014</v>
@@ -5428,13 +4717,10 @@
       <c r="E237">
         <v>86</v>
       </c>
-      <c r="F237">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B238">
         <v>487869.98568532802</v>
@@ -5449,13 +4735,10 @@
       <c r="E238">
         <v>87</v>
       </c>
-      <c r="F238">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B239">
         <v>488005.08600038697</v>
@@ -5470,13 +4753,10 @@
       <c r="E239">
         <v>87</v>
       </c>
-      <c r="F239">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B240">
         <v>488175.94330635801</v>
@@ -5491,13 +4771,10 @@
       <c r="E240">
         <v>87</v>
       </c>
-      <c r="F240">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B241">
         <v>488498.03063825303</v>
@@ -5512,13 +4789,10 @@
       <c r="E241">
         <v>87</v>
       </c>
-      <c r="F241">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B242">
         <v>493566.706484981</v>
@@ -5533,13 +4807,10 @@
       <c r="E242">
         <v>88</v>
       </c>
-      <c r="F242">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B243">
         <v>493780.870478264</v>
@@ -5554,13 +4825,10 @@
       <c r="E243">
         <v>88</v>
       </c>
-      <c r="F243">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B244">
         <v>493999.17905958398</v>
@@ -5575,13 +4843,10 @@
       <c r="E244">
         <v>88</v>
       </c>
-      <c r="F244">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B245">
         <v>499404.54912541597</v>
@@ -5596,13 +4861,10 @@
       <c r="E245">
         <v>89</v>
       </c>
-      <c r="F245">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B246">
         <v>499496.93764146999</v>
@@ -5617,13 +4879,10 @@
       <c r="E246">
         <v>89</v>
       </c>
-      <c r="F246">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B247">
         <v>499517.25169133302</v>
@@ -5638,13 +4897,10 @@
       <c r="E247">
         <v>89</v>
       </c>
-      <c r="F247">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B248">
         <v>505105.11663823802</v>
@@ -5659,13 +4915,10 @@
       <c r="E248">
         <v>90</v>
       </c>
-      <c r="F248">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B249">
         <v>510800.20003238303</v>
@@ -5680,13 +4933,10 @@
       <c r="E249">
         <v>91</v>
       </c>
-      <c r="F249">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B250">
         <v>517194.62191101501</v>
@@ -5701,13 +4951,10 @@
       <c r="E250">
         <v>92</v>
       </c>
-      <c r="F250">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B251">
         <v>522795.79660731601</v>
@@ -5722,13 +4969,10 @@
       <c r="E251">
         <v>93</v>
       </c>
-      <c r="F251">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B252">
         <v>528420.91361309995</v>
@@ -5743,13 +4987,10 @@
       <c r="E252">
         <v>94</v>
       </c>
-      <c r="F252">
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
-        <v>8</v>
       </c>
       <c r="B253">
         <v>528748.041117521</v>
@@ -5764,13 +5005,10 @@
       <c r="E253">
         <v>94</v>
       </c>
-      <c r="F253">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B254">
         <v>534055.27803556796</v>
@@ -5785,13 +5023,10 @@
       <c r="E254">
         <v>95</v>
       </c>
-      <c r="F254">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B255">
         <v>534173.96332321805</v>
@@ -5806,13 +5041,10 @@
       <c r="E255">
         <v>95</v>
       </c>
-      <c r="F255">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B256">
         <v>534396.07606177498</v>
@@ -5827,13 +5059,10 @@
       <c r="E256">
         <v>95</v>
       </c>
-      <c r="F256">
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
-        <v>8</v>
       </c>
       <c r="B257">
         <v>534407.13525934704</v>
@@ -5848,13 +5077,10 @@
       <c r="E257">
         <v>95</v>
       </c>
-      <c r="F257">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B258">
         <v>539754.38369640405</v>
@@ -5869,13 +5095,10 @@
       <c r="E258">
         <v>96</v>
       </c>
-      <c r="F258">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B259">
         <v>539939.739796162</v>
@@ -5890,13 +5113,10 @@
       <c r="E259">
         <v>96</v>
       </c>
-      <c r="F259">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B260">
         <v>545098.95246680302</v>
@@ -5911,13 +5131,10 @@
       <c r="E260">
         <v>97</v>
       </c>
-      <c r="F260">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B261">
         <v>545366.91860355495</v>
@@ -5932,13 +5149,10 @@
       <c r="E261">
         <v>97</v>
       </c>
-      <c r="F261">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B262">
         <v>545538.59089596604</v>
@@ -5953,13 +5167,10 @@
       <c r="E262">
         <v>97</v>
       </c>
-      <c r="F262">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B263">
         <v>545582.99488645897</v>
@@ -5974,13 +5185,10 @@
       <c r="E263">
         <v>97</v>
       </c>
-      <c r="F263">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B264">
         <v>550524.99119833705</v>
@@ -5995,13 +5203,10 @@
       <c r="E264">
         <v>98</v>
       </c>
-      <c r="F264">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B265">
         <v>550981.480947754</v>
@@ -6016,13 +5221,10 @@
       <c r="E265">
         <v>98</v>
       </c>
-      <c r="F265">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B266">
         <v>551098.523958195</v>
@@ -6037,13 +5239,10 @@
       <c r="E266">
         <v>98</v>
       </c>
-      <c r="F266">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B267">
         <v>556041.44054721703</v>
@@ -6058,13 +5257,10 @@
       <c r="E267">
         <v>99</v>
       </c>
-      <c r="F267">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B268">
         <v>556578.28943636303</v>
@@ -6079,13 +5275,10 @@
       <c r="E268">
         <v>99</v>
       </c>
-      <c r="F268">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B269">
         <v>556708.54620227101</v>
@@ -6100,13 +5293,10 @@
       <c r="E269">
         <v>99</v>
       </c>
-      <c r="F269">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B270">
         <v>561679.81315381499</v>
@@ -6121,13 +5311,10 @@
       <c r="E270">
         <v>100</v>
       </c>
-      <c r="F270">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B271">
         <v>562129.33815204306</v>
@@ -6142,13 +5329,10 @@
       <c r="E271">
         <v>100</v>
       </c>
-      <c r="F271">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B272">
         <v>562323.02211332601</v>
@@ -6163,13 +5347,10 @@
       <c r="E272">
         <v>100</v>
       </c>
-      <c r="F272">
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
-        <v>8</v>
       </c>
       <c r="B273">
         <v>567107.82386171201</v>
@@ -6184,13 +5365,10 @@
       <c r="E273">
         <v>101</v>
       </c>
-      <c r="F273">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B274">
         <v>567526.66952891601</v>
@@ -6205,13 +5383,10 @@
       <c r="E274">
         <v>101</v>
       </c>
-      <c r="F274">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B275">
         <v>567636.92600676196</v>
@@ -6226,13 +5401,10 @@
       <c r="E275">
         <v>101</v>
       </c>
-      <c r="F275">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B276">
         <v>567927.19843761297</v>
@@ -6247,13 +5419,10 @@
       <c r="E276">
         <v>101</v>
       </c>
-      <c r="F276">
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
-        <v>8</v>
       </c>
       <c r="B277">
         <v>572774.06993351202</v>
@@ -6268,13 +5437,10 @@
       <c r="E277">
         <v>102</v>
       </c>
-      <c r="F277">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B278">
         <v>573012.06029620301</v>
@@ -6289,13 +5455,10 @@
       <c r="E278">
         <v>102</v>
       </c>
-      <c r="F278">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B279">
         <v>573157.69283293502</v>
@@ -6310,13 +5473,10 @@
       <c r="E279">
         <v>102</v>
       </c>
-      <c r="F279">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B280">
         <v>573486.56209406303</v>
@@ -6331,13 +5491,10 @@
       <c r="E280">
         <v>102</v>
       </c>
-      <c r="F280">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B281">
         <v>578529.847855862</v>
@@ -6352,13 +5509,10 @@
       <c r="E281">
         <v>103</v>
       </c>
-      <c r="F281">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B282">
         <v>578743.88370516396</v>
@@ -6373,13 +5527,10 @@
       <c r="E282">
         <v>103</v>
       </c>
-      <c r="F282">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B283">
         <v>578993.10594502103</v>
@@ -6394,13 +5545,10 @@
       <c r="E283">
         <v>103</v>
       </c>
-      <c r="F283">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B284">
         <v>584278.33226940304</v>
@@ -6415,13 +5563,10 @@
       <c r="E284">
         <v>104</v>
       </c>
-      <c r="F284">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B285">
         <v>584432.33342777297</v>
@@ -6436,13 +5581,10 @@
       <c r="E285">
         <v>104</v>
       </c>
-      <c r="F285">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B286">
         <v>584502.22038273397</v>
@@ -6457,13 +5599,10 @@
       <c r="E286">
         <v>104</v>
       </c>
-      <c r="F286">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B287">
         <v>590071.97159462702</v>
@@ -6478,13 +5617,10 @@
       <c r="E287">
         <v>105</v>
       </c>
-      <c r="F287">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B288">
         <v>590334.69684795104</v>
@@ -6499,13 +5635,10 @@
       <c r="E288">
         <v>105</v>
       </c>
-      <c r="F288">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B289">
         <v>595740.68796465104</v>
@@ -6520,13 +5653,10 @@
       <c r="E289">
         <v>106</v>
       </c>
-      <c r="F289">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B290">
         <v>601578.52672832203</v>
@@ -6541,13 +5671,10 @@
       <c r="E290">
         <v>107</v>
       </c>
-      <c r="F290">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B291">
         <v>602173.83272372303</v>
@@ -6562,13 +5689,10 @@
       <c r="E291">
         <v>107</v>
       </c>
-      <c r="F291">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B292">
         <v>607764.60920572397</v>
@@ -6583,13 +5707,10 @@
       <c r="E292">
         <v>108</v>
       </c>
-      <c r="F292">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B293">
         <v>613386.52885863604</v>
@@ -6604,13 +5725,10 @@
       <c r="E293">
         <v>109</v>
       </c>
-      <c r="F293">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B294">
         <v>613726.19032699603</v>
@@ -6625,13 +5743,10 @@
       <c r="E294">
         <v>109</v>
       </c>
-      <c r="F294">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B295">
         <v>619019.46000665706</v>
@@ -6646,13 +5761,10 @@
       <c r="E295">
         <v>110</v>
       </c>
-      <c r="F295">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B296">
         <v>619168.25435740803</v>
@@ -6667,13 +5779,10 @@
       <c r="E296">
         <v>110</v>
       </c>
-      <c r="F296">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B297">
         <v>619352.322528027</v>
@@ -6688,13 +5797,10 @@
       <c r="E297">
         <v>110</v>
       </c>
-      <c r="F297">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B298">
         <v>619433.29905224196</v>
@@ -6709,13 +5815,10 @@
       <c r="E298">
         <v>110</v>
       </c>
-      <c r="F298">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B299">
         <v>624659.77163388103</v>
@@ -6730,13 +5833,10 @@
       <c r="E299">
         <v>111</v>
       </c>
-      <c r="F299">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B300">
         <v>624725.75717415102</v>
@@ -6751,13 +5851,10 @@
       <c r="E300">
         <v>111</v>
       </c>
-      <c r="F300">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B301">
         <v>624912.12722942</v>
@@ -6772,13 +5869,10 @@
       <c r="E301">
         <v>111</v>
       </c>
-      <c r="F301">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B302">
         <v>630116.23490817798</v>
@@ -6793,13 +5887,10 @@
       <c r="E302">
         <v>112</v>
       </c>
-      <c r="F302">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B303">
         <v>630335.61730386806</v>
@@ -6814,13 +5905,10 @@
       <c r="E303">
         <v>112</v>
       </c>
-      <c r="F303">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B304">
         <v>630539.04513759504</v>
@@ -6835,13 +5923,10 @@
       <c r="E304">
         <v>112</v>
       </c>
-      <c r="F304">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B305">
         <v>630567.73278740095</v>
@@ -6856,13 +5941,10 @@
       <c r="E305">
         <v>112</v>
       </c>
-      <c r="F305">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B306">
         <v>635527.54773794895</v>
@@ -6877,13 +5959,10 @@
       <c r="E306">
         <v>113</v>
       </c>
-      <c r="F306">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B307">
         <v>635951.06071891601</v>
@@ -6898,13 +5977,10 @@
       <c r="E307">
         <v>113</v>
       </c>
-      <c r="F307">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B308">
         <v>636071.48452663701</v>
@@ -6919,13 +5995,10 @@
       <c r="E308">
         <v>113</v>
       </c>
-      <c r="F308">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B309">
         <v>641022.113418811</v>
@@ -6940,13 +6013,10 @@
       <c r="E309">
         <v>114</v>
       </c>
-      <c r="F309">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B310">
         <v>641553.72585194802</v>
@@ -6961,13 +6031,10 @@
       <c r="E310">
         <v>114</v>
       </c>
-      <c r="F310">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B311">
         <v>641677.45088698703</v>
@@ -6982,13 +6049,10 @@
       <c r="E311">
         <v>114</v>
       </c>
-      <c r="F311">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B312">
         <v>646631.45243504399</v>
@@ -7003,13 +6067,10 @@
       <c r="E312">
         <v>115</v>
       </c>
-      <c r="F312">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B313">
         <v>647116.50892876799</v>
@@ -7024,13 +6085,10 @@
       <c r="E313">
         <v>115</v>
       </c>
-      <c r="F313">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B314">
         <v>647291.92668299202</v>
@@ -7045,13 +6103,10 @@
       <c r="E314">
         <v>115</v>
       </c>
-      <c r="F314">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B315">
         <v>652103.05902694899</v>
@@ -7066,13 +6121,10 @@
       <c r="E315">
         <v>116</v>
       </c>
-      <c r="F315">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B316">
         <v>652410.32422151195</v>
@@ -7087,13 +6139,10 @@
       <c r="E316">
         <v>116</v>
       </c>
-      <c r="F316">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B317">
         <v>652629.69470224099</v>
@@ -7108,13 +6157,10 @@
       <c r="E317">
         <v>116</v>
       </c>
-      <c r="F317">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B318">
         <v>652901.06431381195</v>
@@ -7129,13 +6175,10 @@
       <c r="E318">
         <v>116</v>
       </c>
-      <c r="F318">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B319">
         <v>657704.19051294203</v>
@@ -7150,13 +6193,10 @@
       <c r="E319">
         <v>117</v>
       </c>
-      <c r="F319">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B320">
         <v>658030.80507067405</v>
@@ -7171,13 +6211,10 @@
       <c r="E320">
         <v>117</v>
       </c>
-      <c r="F320">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B321">
         <v>658142.46955439902</v>
@@ -7192,13 +6229,10 @@
       <c r="E321">
         <v>117</v>
       </c>
-      <c r="F321">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B322">
         <v>658472.29070941405</v>
@@ -7213,13 +6247,10 @@
       <c r="E322">
         <v>117</v>
       </c>
-      <c r="F322">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B323">
         <v>663502.40525102196</v>
@@ -7234,13 +6265,10 @@
       <c r="E323">
         <v>118</v>
       </c>
-      <c r="F323">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B324">
         <v>663711.44791412097</v>
@@ -7255,13 +6283,10 @@
       <c r="E324">
         <v>118</v>
       </c>
-      <c r="F324">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B325">
         <v>663987.21170557197</v>
@@ -7276,13 +6301,10 @@
       <c r="E325">
         <v>118</v>
       </c>
-      <c r="F325">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B326">
         <v>669190.63512823603</v>
@@ -7297,13 +6319,10 @@
       <c r="E326">
         <v>119</v>
       </c>
-      <c r="F326">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B327">
         <v>669374.84635931696</v>
@@ -7318,13 +6337,10 @@
       <c r="E327">
         <v>119</v>
       </c>
-      <c r="F327">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B328">
         <v>669490.02286337398</v>
@@ -7339,13 +6355,10 @@
       <c r="E328">
         <v>119</v>
       </c>
-      <c r="F328">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B329">
         <v>675043.29725655797</v>
@@ -7360,13 +6373,10 @@
       <c r="E329">
         <v>120</v>
       </c>
-      <c r="F329">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B330">
         <v>675191.60081824195</v>
@@ -7381,13 +6391,10 @@
       <c r="E330">
         <v>120</v>
       </c>
-      <c r="F330">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B331">
         <v>680687.81810340297</v>
@@ -7402,13 +6409,10 @@
       <c r="E331">
         <v>121</v>
       </c>
-      <c r="F331">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B332">
         <v>686473.15054236201</v>
@@ -7423,13 +6427,10 @@
       <c r="E332">
         <v>122</v>
       </c>
-      <c r="F332">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B333">
         <v>687158.98627174995</v>
@@ -7444,13 +6445,10 @@
       <c r="E333">
         <v>122</v>
       </c>
-      <c r="F333">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B334">
         <v>692734.61445296905</v>
@@ -7465,13 +6463,10 @@
       <c r="E334">
         <v>123</v>
       </c>
-      <c r="F334">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B335">
         <v>698352.54583330394</v>
@@ -7486,13 +6481,10 @@
       <c r="E335">
         <v>124</v>
       </c>
-      <c r="F335">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B336">
         <v>698713.01005595701</v>
@@ -7507,13 +6499,10 @@
       <c r="E336">
         <v>124</v>
       </c>
-      <c r="F336">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B337">
         <v>703983.83409830998</v>
@@ -7528,13 +6517,10 @@
       <c r="E337">
         <v>125</v>
       </c>
-      <c r="F337">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B338">
         <v>704218.58735046897</v>
@@ -7549,13 +6535,10 @@
       <c r="E338">
         <v>125</v>
       </c>
-      <c r="F338">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B339">
         <v>704306.95729949197</v>
@@ -7570,13 +6553,10 @@
       <c r="E339">
         <v>125</v>
       </c>
-      <c r="F339">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B340">
         <v>709621.63524499803</v>
@@ -7591,13 +6571,10 @@
       <c r="E340">
         <v>126</v>
       </c>
-      <c r="F340">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B341">
         <v>709698.79927796405</v>
@@ -7612,13 +6589,10 @@
       <c r="E341">
         <v>126</v>
       </c>
-      <c r="F341">
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A342" t="s">
-        <v>10</v>
       </c>
       <c r="B342">
         <v>709888.70107703598</v>
@@ -7633,13 +6607,10 @@
       <c r="E342">
         <v>126</v>
       </c>
-      <c r="F342">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B343">
         <v>715135.66695292096</v>
@@ -7654,13 +6625,10 @@
       <c r="E343">
         <v>127</v>
       </c>
-      <c r="F343">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B344">
         <v>715304.58749965299</v>
@@ -7675,13 +6643,10 @@
       <c r="E344">
         <v>127</v>
       </c>
-      <c r="F344">
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A345" t="s">
-        <v>10</v>
       </c>
       <c r="B345">
         <v>715499.31510592205</v>
@@ -7696,13 +6661,10 @@
       <c r="E345">
         <v>127</v>
       </c>
-      <c r="F345">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B346">
         <v>720533.92413176002</v>
@@ -7717,13 +6679,10 @@
       <c r="E346">
         <v>128</v>
       </c>
-      <c r="F346">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B347">
         <v>720919.75933217397</v>
@@ -7738,13 +6697,10 @@
       <c r="E347">
         <v>128</v>
       </c>
-      <c r="F347">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B348">
         <v>721046.86108766403</v>
@@ -7759,13 +6715,10 @@
       <c r="E348">
         <v>128</v>
       </c>
-      <c r="F348">
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A349" t="s">
-        <v>10</v>
       </c>
       <c r="B349">
         <v>721219.08674466098</v>
@@ -7780,13 +6733,10 @@
       <c r="E349">
         <v>128</v>
       </c>
-      <c r="F349">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B350">
         <v>726007.95152202505</v>
@@ -7801,13 +6751,10 @@
       <c r="E350">
         <v>129</v>
       </c>
-      <c r="F350">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B351">
         <v>726527.454328408</v>
@@ -7822,13 +6769,10 @@
       <c r="E351">
         <v>129</v>
       </c>
-      <c r="F351">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B352">
         <v>726646.76141859195</v>
@@ -7843,13 +6787,10 @@
       <c r="E352">
         <v>129</v>
       </c>
-      <c r="F352">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B353">
         <v>731590.14941765997</v>
@@ -7864,13 +6805,10 @@
       <c r="E353">
         <v>130</v>
       </c>
-      <c r="F353">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B354">
         <v>732101.14173221402</v>
@@ -7885,13 +6823,10 @@
       <c r="E354">
         <v>130</v>
       </c>
-      <c r="F354">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B355">
         <v>732260.83127715101</v>
@@ -7906,13 +6841,10 @@
       <c r="E355">
         <v>130</v>
       </c>
-      <c r="F355">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B356">
         <v>737112.54193186702</v>
@@ -7927,13 +6859,10 @@
       <c r="E356">
         <v>131</v>
       </c>
-      <c r="F356">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B357">
         <v>737322.30207302806</v>
@@ -7948,13 +6877,10 @@
       <c r="E357">
         <v>131</v>
       </c>
-      <c r="F357">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B358">
         <v>737622.47485278</v>
@@ -7969,13 +6895,10 @@
       <c r="E358">
         <v>131</v>
       </c>
-      <c r="F358">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B359">
         <v>737873.14776060905</v>
@@ -7990,13 +6913,10 @@
       <c r="E359">
         <v>131</v>
       </c>
-      <c r="F359">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B360">
         <v>742651.61955654295</v>
@@ -8011,13 +6931,10 @@
       <c r="E360">
         <v>132</v>
       </c>
-      <c r="F360">
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A361" t="s">
-        <v>10</v>
       </c>
       <c r="B361">
         <v>743066.45015466795</v>
@@ -8032,13 +6949,10 @@
       <c r="E361">
         <v>132</v>
       </c>
-      <c r="F361">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B362">
         <v>743129.87378567201</v>
@@ -8053,13 +6967,10 @@
       <c r="E362">
         <v>132</v>
       </c>
-      <c r="F362">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B363">
         <v>743455.16376336804</v>
@@ -8074,13 +6985,10 @@
       <c r="E363">
         <v>132</v>
       </c>
-      <c r="F363">
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A364" t="s">
-        <v>10</v>
       </c>
       <c r="B364">
         <v>748483.98981503095</v>
@@ -8095,13 +7003,10 @@
       <c r="E364">
         <v>133</v>
       </c>
-      <c r="F364">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B365">
         <v>748683.29193024198</v>
@@ -8116,13 +7021,10 @@
       <c r="E365">
         <v>133</v>
       </c>
-      <c r="F365">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B366">
         <v>748980.755395227</v>
@@ -8137,13 +7039,10 @@
       <c r="E366">
         <v>133</v>
       </c>
-      <c r="F366">
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A367" t="s">
-        <v>10</v>
       </c>
       <c r="B367">
         <v>754121.90810521203</v>
@@ -8158,13 +7057,10 @@
       <c r="E367">
         <v>134</v>
       </c>
-      <c r="F367">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B368">
         <v>754323.59448608698</v>
@@ -8179,13 +7075,10 @@
       <c r="E368">
         <v>134</v>
       </c>
-      <c r="F368">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B369">
         <v>754480.21499143005</v>
@@ -8200,13 +7093,10 @@
       <c r="E369">
         <v>134</v>
       </c>
-      <c r="F369">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B370">
         <v>760018.75769718003</v>
@@ -8221,13 +7111,10 @@
       <c r="E370">
         <v>135</v>
       </c>
-      <c r="F370">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B371">
         <v>760095.74728415895</v>
@@ -8242,13 +7129,10 @@
       <c r="E371">
         <v>135</v>
       </c>
-      <c r="F371">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B372">
         <v>765640.91185417399</v>
@@ -8263,13 +7147,10 @@
       <c r="E372">
         <v>136</v>
       </c>
-      <c r="F372">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B373">
         <v>771388.01068895997</v>
@@ -8284,13 +7165,10 @@
       <c r="E373">
         <v>137</v>
       </c>
-      <c r="F373">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B374">
         <v>772155.21509236505</v>
@@ -8305,13 +7183,10 @@
       <c r="E374">
         <v>137</v>
       </c>
-      <c r="F374">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B375">
         <v>777706.09034309501</v>
@@ -8326,13 +7201,10 @@
       <c r="E375">
         <v>138</v>
       </c>
-      <c r="F375">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B376">
         <v>783319.14005826798</v>
@@ -8347,13 +7219,10 @@
       <c r="E376">
         <v>139</v>
       </c>
-      <c r="F376">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B377">
         <v>783713.37157932704</v>
@@ -8368,13 +7237,10 @@
       <c r="E377">
         <v>139</v>
       </c>
-      <c r="F377">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B378">
         <v>788948.57399671804</v>
@@ -8389,13 +7255,10 @@
       <c r="E378">
         <v>140</v>
       </c>
-      <c r="F378">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B379">
         <v>789268.39365650201</v>
@@ -8410,13 +7273,10 @@
       <c r="E379">
         <v>140</v>
       </c>
-      <c r="F379">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B380">
         <v>794585.08698162704</v>
@@ -8431,13 +7291,10 @@
       <c r="E380">
         <v>141</v>
       </c>
-      <c r="F380">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B381">
         <v>794674.26318420202</v>
@@ -8452,13 +7309,10 @@
       <c r="E381">
         <v>141</v>
       </c>
-      <c r="F381">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B382">
         <v>794871.02312154102</v>
@@ -8473,13 +7327,10 @@
       <c r="E382">
         <v>141</v>
       </c>
-      <c r="F382">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B383">
         <v>795029.95405011903</v>
@@ -8494,13 +7345,10 @@
       <c r="E383">
         <v>141</v>
       </c>
-      <c r="F383">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B384">
         <v>800157.85661878902</v>
@@ -8515,13 +7363,10 @@
       <c r="E384">
         <v>142</v>
       </c>
-      <c r="F384">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B385">
         <v>800273.78489139595</v>
@@ -8536,13 +7381,10 @@
       <c r="E385">
         <v>142</v>
       </c>
-      <c r="F385">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B386">
         <v>800462.85156504204</v>
@@ -8557,13 +7399,10 @@
       <c r="E386">
         <v>142</v>
       </c>
-      <c r="F386">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B387">
         <v>805543.77745463105</v>
@@ -8578,13 +7417,10 @@
       <c r="E387">
         <v>143</v>
       </c>
-      <c r="F387">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B388">
         <v>805888.45796897297</v>
@@ -8599,13 +7435,10 @@
       <c r="E388">
         <v>143</v>
       </c>
-      <c r="F388">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B389">
         <v>806025.64090086299</v>
@@ -8620,13 +7453,10 @@
       <c r="E389">
         <v>143</v>
       </c>
-      <c r="F389">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B390">
         <v>806141.53804287605</v>
@@ -8641,13 +7471,10 @@
       <c r="E390">
         <v>143</v>
       </c>
-      <c r="F390">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B391">
         <v>810998.68284420995</v>
@@ -8662,13 +7489,10 @@
       <c r="E391">
         <v>144</v>
       </c>
-      <c r="F391">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B392">
         <v>811499.84396641003</v>
@@ -8683,13 +7507,10 @@
       <c r="E392">
         <v>144</v>
       </c>
-      <c r="F392">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B393">
         <v>811616.24415444303</v>
@@ -8704,13 +7525,10 @@
       <c r="E393">
         <v>144</v>
       </c>
-      <c r="F393">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B394">
         <v>816555.33103283006</v>
@@ -8725,13 +7543,10 @@
       <c r="E394">
         <v>145</v>
       </c>
-      <c r="F394">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B395">
         <v>817083.05439622002</v>
@@ -8746,13 +7561,10 @@
       <c r="E395">
         <v>145</v>
       </c>
-      <c r="F395">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B396">
         <v>817229.73589580494</v>
@@ -8767,13 +7579,10 @@
       <c r="E396">
         <v>145</v>
       </c>
-      <c r="F396">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B397">
         <v>822140.62868937396</v>
@@ -8788,13 +7597,10 @@
       <c r="E397">
         <v>146</v>
       </c>
-      <c r="F397">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B398">
         <v>822249.09651893901</v>
@@ -8809,13 +7615,10 @@
       <c r="E398">
         <v>146</v>
       </c>
-      <c r="F398">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B399">
         <v>822614.57842706004</v>
@@ -8830,13 +7633,10 @@
       <c r="E399">
         <v>146</v>
       </c>
-      <c r="F399">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B400">
         <v>822844.21200216794</v>
@@ -8851,13 +7651,10 @@
       <c r="E400">
         <v>146</v>
       </c>
-      <c r="F400">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B401">
         <v>827613.034133318</v>
@@ -8872,13 +7669,10 @@
       <c r="E401">
         <v>147</v>
       </c>
-      <c r="F401">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B402">
         <v>828119.46775067504</v>
@@ -8893,13 +7687,10 @@
       <c r="E402">
         <v>147</v>
       </c>
-      <c r="F402">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B403">
         <v>828154.79347321205</v>
@@ -8914,13 +7705,10 @@
       <c r="E403">
         <v>147</v>
       </c>
-      <c r="F403">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B404">
         <v>828435.13510519604</v>
@@ -8935,13 +7723,10 @@
       <c r="E404">
         <v>147</v>
       </c>
-      <c r="F404">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B405">
         <v>833439.112392899</v>
@@ -8956,13 +7741,10 @@
       <c r="E405">
         <v>148</v>
       </c>
-      <c r="F405">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B406">
         <v>833474.56856309099</v>
@@ -8977,13 +7759,10 @@
       <c r="E406">
         <v>148</v>
       </c>
-      <c r="F406">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B407">
         <v>833659.08303797001</v>
@@ -8998,13 +7777,10 @@
       <c r="E407">
         <v>148</v>
       </c>
-      <c r="F407">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B408">
         <v>833972.98166187096</v>
@@ -9019,13 +7795,10 @@
       <c r="E408">
         <v>148</v>
       </c>
-      <c r="F408">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B409">
         <v>839066.81277140696</v>
@@ -9040,13 +7813,10 @@
       <c r="E409">
         <v>149</v>
       </c>
-      <c r="F409">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B410">
         <v>839277.98325841594</v>
@@ -9061,13 +7831,10 @@
       <c r="E410">
         <v>149</v>
       </c>
-      <c r="F410">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B411">
         <v>839472.29007865605</v>
@@ -9082,13 +7849,10 @@
       <c r="E411">
         <v>149</v>
       </c>
-      <c r="F411">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B412">
         <v>844998.026769649</v>
@@ -9103,13 +7867,10 @@
       <c r="E412">
         <v>150</v>
       </c>
-      <c r="F412">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B413">
         <v>845015.294332347</v>
@@ -9124,13 +7885,10 @@
       <c r="E413">
         <v>150</v>
       </c>
-      <c r="F413">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B414">
         <v>850599.44737089798</v>
@@ -9145,13 +7903,10 @@
       <c r="E414">
         <v>151</v>
       </c>
-      <c r="F414">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B415">
         <v>856314.54224935395</v>
@@ -9166,13 +7921,10 @@
       <c r="E415">
         <v>152</v>
       </c>
-      <c r="F415">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B416">
         <v>857187.16582835105</v>
@@ -9187,13 +7939,10 @@
       <c r="E416">
         <v>152</v>
       </c>
-      <c r="F416">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B417">
         <v>862679.81133769394</v>
@@ -9208,13 +7957,10 @@
       <c r="E417">
         <v>153</v>
       </c>
-      <c r="F417">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B418">
         <v>868286.48350690701</v>
@@ -9229,13 +7975,10 @@
       <c r="E418">
         <v>154</v>
       </c>
-      <c r="F418">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B419">
         <v>868743.790935706</v>
@@ -9250,13 +7993,10 @@
       <c r="E419">
         <v>154</v>
       </c>
-      <c r="F419">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B420">
         <v>873913.52100063895</v>
@@ -9271,13 +8011,10 @@
       <c r="E420">
         <v>155</v>
       </c>
-      <c r="F420">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B421">
         <v>874235.69712032401</v>
@@ -9292,13 +8029,10 @@
       <c r="E421">
         <v>155</v>
       </c>
-      <c r="F421">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B422">
         <v>879548.805287314</v>
@@ -9313,13 +8047,10 @@
       <c r="E422">
         <v>156</v>
       </c>
-      <c r="F422">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B423">
         <v>879653.40964885405</v>
@@ -9334,13 +8065,10 @@
       <c r="E423">
         <v>156</v>
       </c>
-      <c r="F423">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B424">
         <v>879862.00954467698</v>
@@ -9355,13 +8083,10 @@
       <c r="E424">
         <v>156</v>
       </c>
-      <c r="F424">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B425">
         <v>879922.93651641498</v>
@@ -9376,13 +8101,10 @@
       <c r="E425">
         <v>156</v>
       </c>
-      <c r="F425">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B426">
         <v>885243.23336957104</v>
@@ -9397,13 +8119,10 @@
       <c r="E426">
         <v>157</v>
       </c>
-      <c r="F426">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B427">
         <v>885429.50412277097</v>
@@ -9418,13 +8137,10 @@
       <c r="E427">
         <v>157</v>
       </c>
-      <c r="F427">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B428">
         <v>890556.71707039396</v>
@@ -9439,13 +8155,10 @@
       <c r="E428">
         <v>158</v>
       </c>
-      <c r="F428">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B429">
         <v>890857.15662931895</v>
@@ -9460,13 +8173,10 @@
       <c r="E429">
         <v>158</v>
       </c>
-      <c r="F429">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B430">
         <v>891010.72330691095</v>
@@ -9481,13 +8191,10 @@
       <c r="E430">
         <v>158</v>
       </c>
-      <c r="F430">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B431">
         <v>891085.27606943797</v>
@@ -9502,13 +8209,10 @@
       <c r="E431">
         <v>158</v>
       </c>
-      <c r="F431">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B432">
         <v>895994.03789999499</v>
@@ -9523,13 +8227,10 @@
       <c r="E432">
         <v>159</v>
       </c>
-      <c r="F432">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B433">
         <v>896470.46556569601</v>
@@ -9544,13 +8245,10 @@
       <c r="E433">
         <v>159</v>
       </c>
-      <c r="F433">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B434">
         <v>896586.89896730299</v>
@@ -9565,13 +8263,10 @@
       <c r="E434">
         <v>159</v>
       </c>
-      <c r="F434">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B435">
         <v>901526.55153224897</v>
@@ -9586,13 +8281,10 @@
       <c r="E435">
         <v>160</v>
       </c>
-      <c r="F435">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B436">
         <v>902062.48138628702</v>
@@ -9607,13 +8299,10 @@
       <c r="E436">
         <v>160</v>
       </c>
-      <c r="F436">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B437">
         <v>902198.64053895394</v>
@@ -9628,13 +8317,10 @@
       <c r="E437">
         <v>160</v>
       </c>
-      <c r="F437">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B438">
         <v>907186.57233523601</v>
@@ -9649,13 +8335,10 @@
       <c r="E438">
         <v>161</v>
       </c>
-      <c r="F438">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B439">
         <v>907204.60713848704</v>
@@ -9670,13 +8353,10 @@
       <c r="E439">
         <v>161</v>
       </c>
-      <c r="F439">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B440">
         <v>907605.31162980001</v>
@@ -9691,13 +8371,10 @@
       <c r="E440">
         <v>161</v>
       </c>
-      <c r="F440">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B441">
         <v>907813.11653026799</v>
@@ -9712,13 +8389,10 @@
       <c r="E441">
         <v>161</v>
       </c>
-      <c r="F441">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B442">
         <v>912587.06118081603</v>
@@ -9733,13 +8407,10 @@
       <c r="E442">
         <v>162</v>
       </c>
-      <c r="F442">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B443">
         <v>913110.73392770696</v>
@@ -9754,13 +8425,10 @@
       <c r="E443">
         <v>162</v>
       </c>
-      <c r="F443">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B444">
         <v>913412.67451313697</v>
@@ -9775,13 +8443,10 @@
       <c r="E444">
         <v>162</v>
       </c>
-      <c r="F444">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B445">
         <v>918305.55820407998</v>
@@ -9796,13 +8461,10 @@
       <c r="E445">
         <v>163</v>
       </c>
-      <c r="F445">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B446">
         <v>918474.50002136303</v>
@@ -9817,13 +8479,10 @@
       <c r="E446">
         <v>163</v>
       </c>
-      <c r="F446">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B447">
         <v>918638.49620932702</v>
@@ -9838,13 +8497,10 @@
       <c r="E447">
         <v>163</v>
       </c>
-      <c r="F447">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B448">
         <v>918963.244756434</v>
@@ -9859,13 +8515,10 @@
       <c r="E448">
         <v>163</v>
       </c>
-      <c r="F448">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B449">
         <v>924022.93123027706</v>
@@ -9880,13 +8533,10 @@
       <c r="E449">
         <v>164</v>
       </c>
-      <c r="F449">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B450">
         <v>924237.59518695599</v>
@@ -9901,13 +8551,10 @@
       <c r="E450">
         <v>164</v>
       </c>
-      <c r="F450">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B451">
         <v>924465.68405068701</v>
@@ -9922,13 +8569,10 @@
       <c r="E451">
         <v>164</v>
       </c>
-      <c r="F451">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B452">
         <v>929827.43738363904</v>
@@ -9943,13 +8587,10 @@
       <c r="E452">
         <v>165</v>
       </c>
-      <c r="F452">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B453">
         <v>929944.98938458797</v>
@@ -9964,13 +8605,10 @@
       <c r="E453">
         <v>165</v>
       </c>
-      <c r="F453">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B454">
         <v>929980.77569341904</v>
@@ -9984,9 +8622,6 @@
       </c>
       <c r="E454">
         <v>165</v>
-      </c>
-      <c r="F454">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
